--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T13:58:22+00:00</t>
+    <t>2025-11-21T14:04:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:04:11+00:00</t>
+    <t>2025-11-24T10:17:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T10:17:58+00:00</t>
+    <t>2025-12-01T10:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T10:25:53+00:00</t>
+    <t>2025-12-11T10:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T10:55:27+00:00</t>
+    <t>2025-12-15T08:46:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T08:46:27+00:00</t>
+    <t>2025-12-18T16:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T16:50:53+00:00</t>
+    <t>2025-12-29T09:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:07:59+00:00</t>
+    <t>2026-01-02T10:06:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T10:06:11+00:00</t>
+    <t>2026-01-09T10:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T10:45:44+00:00</t>
+    <t>2026-01-09T10:57:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T10:57:17+00:00</t>
+    <t>2026-01-09T15:41:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T15:41:51+00:00</t>
+    <t>2026-01-12T15:51:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T15:51:50+00:00</t>
+    <t>2026-01-12T16:01:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/EyeColor</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/EyeColor</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T16:01:49+00:00</t>
+    <t>2026-01-15T15:18:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -341,7 +341,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/ValueSet/EyeColorVS</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/ValueSet/EyeColorVS</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -690,7 +690,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.87890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.82421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T15:18:25+00:00</t>
+    <t>2026-01-16T10:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T10:30:25+00:00</t>
+    <t>2026-01-16T10:53:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T10:53:20+00:00</t>
+    <t>2026-01-21T09:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
+++ b/ajout-SFE/ig/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T09:19:52+00:00</t>
+    <t>2026-01-23T10:32:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
